--- a/Excel/Export/SensorWithDetails.xlsx
+++ b/Excel/Export/SensorWithDetails.xlsx
@@ -154,10 +154,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -177,7 +177,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -191,7 +191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -206,198 +206,198 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4" s="1">
         <v>20</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5" s="1">
         <v>3000</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6" s="1">
         <v>15</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7" s="1">
         <v>150</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8" s="1">
         <v>200</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="1">
         <v>82</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9" s="1">
         <v>500</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10" s="1">
         <v>400</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11" s="1">
         <v>1560</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11" s="1">
         <v>2200</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12" s="1">
         <v>23</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13" s="1">
         <v>1005</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13" s="1">
         <v>2005</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14" s="1">
         <v>500</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14" s="1">
         <v>5000</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15" s="1">
         <v>1000</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15" s="1">
         <v>1510</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
     </row>
